--- a/disdrometer.xlsx
+++ b/disdrometer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Z9010" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BJXFS!$A$1:$I$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BJXSY!$A$1:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Z9010'!$A$1:$I$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +71,26 @@
     <t>range(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>azi(deg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surf_range(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能包住的数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能包住的数据库的距离上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能包住的数据库的距离上限的投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -91,12 +112,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -120,6 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1758,15 +1786,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,13 +1823,22 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>54398</v>
       </c>
@@ -1823,10 +1866,17 @@
       <c r="I2">
         <v>720.70816106726704</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>750</v>
+      </c>
+      <c r="L2">
+        <v>749.74126289454205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>54399</v>
       </c>
@@ -1854,10 +1904,17 @@
       <c r="I3">
         <v>32530.267672557198</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>434</v>
+      </c>
+      <c r="K3" s="1">
+        <v>32549.999999999902</v>
+      </c>
+      <c r="L3">
+        <v>32535.4255893425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>54406</v>
       </c>
@@ -1885,10 +1942,17 @@
       <c r="I4">
         <v>65769.181118771405</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>878</v>
+      </c>
+      <c r="K4" s="1">
+        <v>65850</v>
+      </c>
+      <c r="L4">
+        <v>65812.772953915905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>54410</v>
       </c>
@@ -1916,10 +1980,17 @@
       <c r="I5">
         <v>66613.325204574605</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>889</v>
+      </c>
+      <c r="K5" s="1">
+        <v>66675</v>
+      </c>
+      <c r="L5">
+        <v>66637.103717211605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>54412</v>
       </c>
@@ -1947,10 +2018,17 @@
       <c r="I6">
         <v>67348.211491031601</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="1">
+        <v>899</v>
+      </c>
+      <c r="K6" s="1">
+        <v>67425</v>
+      </c>
+      <c r="L6">
+        <v>67386.490598844204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>54416</v>
       </c>
@@ -1978,10 +2056,17 @@
       <c r="I7">
         <v>35621.512817798903</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>476</v>
+      </c>
+      <c r="K7" s="1">
+        <v>35700</v>
+      </c>
+      <c r="L7">
+        <v>35683.6336775132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>54419</v>
       </c>
@@ -2009,10 +2094,17 @@
       <c r="I8">
         <v>26664.905943822501</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>356</v>
+      </c>
+      <c r="K8" s="1">
+        <v>26700</v>
+      </c>
+      <c r="L8">
+        <v>26688.568359787601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>54421</v>
       </c>
@@ -2040,10 +2132,17 @@
       <c r="I9">
         <v>72028.712936717799</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="1">
+        <v>961</v>
+      </c>
+      <c r="K9" s="1">
+        <v>72075</v>
+      </c>
+      <c r="L9">
+        <v>72032.588182916996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>54424</v>
       </c>
@@ -2071,10 +2170,17 @@
       <c r="I10">
         <v>42979.136723357798</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>574</v>
+      </c>
+      <c r="K10" s="1">
+        <v>43050</v>
+      </c>
+      <c r="L10">
+        <v>43029.175481004502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>54431</v>
       </c>
@@ -2102,10 +2208,17 @@
       <c r="I11">
         <v>32832.610779864997</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>438</v>
+      </c>
+      <c r="K11" s="1">
+        <v>32850</v>
+      </c>
+      <c r="L11">
+        <v>32835.257960919298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>54433</v>
       </c>
@@ -2133,10 +2246,17 @@
       <c r="I12">
         <v>21972.9371535584</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>294</v>
+      </c>
+      <c r="K12" s="1">
+        <v>22050</v>
+      </c>
+      <c r="L12">
+        <v>22040.8979006259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>54499</v>
       </c>
@@ -2164,41 +2284,55 @@
       <c r="I13">
         <v>35358.823038317998</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="J13" s="1">
+        <v>472</v>
+      </c>
+      <c r="K13" s="1">
+        <v>35400</v>
+      </c>
+      <c r="L13">
+        <v>35383.8073754664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>54501</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>39.966700000000003</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>115.68300000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>387524.932946602</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>4424891.6751366798</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>-79696.334228276202</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>-17026.2767698643</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>257.69341797633598</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>81521.567951254503</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="4">
+        <v>1088</v>
+      </c>
+      <c r="K14" s="4">
+        <v>81600</v>
+      </c>
+      <c r="L14" s="4">
+        <v>81549.041770069103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>54505</v>
       </c>
@@ -2226,10 +2360,17 @@
       <c r="I15">
         <v>47359.545565681299</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="1">
+        <v>632</v>
+      </c>
+      <c r="K15" s="1">
+        <v>47400</v>
+      </c>
+      <c r="L15">
+        <v>47376.350765845098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>54511</v>
       </c>
@@ -2257,10 +2398,17 @@
       <c r="I16">
         <v>38449.1244006454</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="1">
+        <v>513</v>
+      </c>
+      <c r="K16" s="1">
+        <v>38475</v>
+      </c>
+      <c r="L16">
+        <v>38456.996405047903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>54513</v>
       </c>
@@ -2288,10 +2436,17 @@
       <c r="I17">
         <v>40566.687598202603</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="1">
+        <v>542</v>
+      </c>
+      <c r="K17" s="1">
+        <v>40650</v>
+      </c>
+      <c r="L17">
+        <v>40630.674311136201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>54514</v>
       </c>
@@ -2319,10 +2474,17 @@
       <c r="I18">
         <v>42521.242747938297</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" s="1">
+        <v>568</v>
+      </c>
+      <c r="K18" s="1">
+        <v>42600</v>
+      </c>
+      <c r="L18">
+        <v>42579.459721929699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>54594</v>
       </c>
@@ -2350,10 +2512,17 @@
       <c r="I19">
         <v>50543.318193166298</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J19" s="1">
+        <v>675</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50625</v>
+      </c>
+      <c r="L19">
+        <v>50599.165536925801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>54596</v>
       </c>
@@ -2381,41 +2550,55 @@
       <c r="I20">
         <v>53313.029344456598</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="J20" s="1">
+        <v>712</v>
+      </c>
+      <c r="K20" s="1">
+        <v>53400</v>
+      </c>
+      <c r="L20">
+        <v>53372.222380320702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>54597</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>39.7286</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>115.741</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>392106.27600949001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>4398392.9056366403</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>-75114.991165388696</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>-43525.0462699048</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>239.663871833287</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>86843.066250578006</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J21" s="4">
+        <v>1159</v>
+      </c>
+      <c r="K21" s="4">
+        <v>86925</v>
+      </c>
+      <c r="L21" s="4">
+        <v>86868.933050009204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2443,8 +2626,24 @@
       <c r="I22">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>75</v>
+      </c>
+      <c r="L22">
+        <v>74.974298516509094</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L22">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="lessThan" val="1000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
